--- a/requerimientos.xlsx
+++ b/requerimientos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Desktop\ejercicioGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2283E355-A7BF-45F6-8611-D7798B2C0145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E6B0A6-5E85-4347-9800-3FE3DC30A8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{12740540-D3B9-4644-809B-B9B7EF5BDC21}"/>
   </bookViews>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>nombre</t>
   </si>
   <si>
     <t>apellido</t>
+  </si>
+  <si>
+    <t>beatriz</t>
+  </si>
+  <si>
+    <t>sastre</t>
   </si>
 </sst>
 </file>
@@ -393,22 +399,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E75148-D201-415B-9DB9-D73931901992}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
